--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_2_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_2_sine_0.1_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005095837693946947</v>
+        <v>0.001206652733196978</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005095837693946947</v>
+        <v>0.001206652733196978</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>39.71067759385466</v>
+        <v>43.02795316867243</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[18.611180485430843, 60.81017470227848]</t>
+          <t>[16.639945770677855, 69.41596056666701]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0004444158157186351</v>
+        <v>0.001984689032197728</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0004444158157186351</v>
+        <v>0.001984689032197728</v>
       </c>
       <c r="P2" t="n">
         <v>1.641552918091963</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8993948938205003, 2.383710942363426]</t>
+          <t>[0.8365001460008861, 2.4466056901830404]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.507154877149034e-05</v>
+        <v>0.0001669965727382206</v>
       </c>
       <c r="S2" t="n">
-        <v>5.507154877149034e-05</v>
+        <v>0.0001669965727382206</v>
       </c>
       <c r="T2" t="n">
-        <v>46.01589211594592</v>
+        <v>62.44596375843581</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[32.44183189673066, 59.589952335161186]</t>
+          <t>[46.6645555150225, 78.22737200184912]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.835515162085244e-08</v>
+        <v>3.815956439723323e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.835515162085244e-08</v>
+        <v>3.815956439723323e-10</v>
       </c>
       <c r="X2" t="n">
         <v>18.39459459459493</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.45345345345373</v>
+        <v>15.20420420420449</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.33573573573613</v>
+        <v>21.58498498498538</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.464058356310694e-05</v>
+        <v>0.01787431543618312</v>
       </c>
       <c r="I3" t="n">
-        <v>2.464058356310694e-05</v>
+        <v>0.01787431543618312</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>47.68554261800033</v>
+        <v>32.30812269821571</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[24.083303586989985, 71.28778164901068]</t>
+          <t>[4.7199221892777885, 59.896323207153635]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0001879163804296979</v>
+        <v>0.0227426240641817</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001879163804296979</v>
+        <v>0.0227426240641817</v>
       </c>
       <c r="P3" t="n">
-        <v>1.314500229429963</v>
+        <v>1.377394977249579</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 1.8805529598065016]</t>
+          <t>[0.20755266780473125, 2.5472372866944264]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.672448134588556e-05</v>
+        <v>0.02205865176989619</v>
       </c>
       <c r="S3" t="n">
-        <v>2.672448134588556e-05</v>
+        <v>0.02205865176989619</v>
       </c>
       <c r="T3" t="n">
-        <v>67.68375039842509</v>
+        <v>68.67262797800859</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[54.474791613680964, 80.89270918316922]</t>
+          <t>[52.95620239432, 84.38905356169718]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.918465386552271e-13</v>
+        <v>2.428568457446545e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.918465386552271e-13</v>
+        <v>2.428568457446545e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>19.69069069069105</v>
+        <v>19.4414414414418</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.44744744744777</v>
+        <v>14.80540540540568</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.93393393393433</v>
+        <v>24.07747747747791</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>8.597583358793681e-05</v>
+        <v>4.094260309339681e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>8.597583358793681e-05</v>
+        <v>4.094260309339681e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>41.2658038187141</v>
+        <v>49.98008519543264</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[18.574476364778036, 63.95713127265016]</t>
+          <t>[26.685333317699047, 73.27483707316624]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0006542686040562629</v>
+        <v>8.459728460930016e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0006542686040562629</v>
+        <v>8.459728460930016e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.10065808684327</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5094474573388847, 1.6918687163476562]</t>
+          <t>[0.672973801669885, 1.628973968528042]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0005034151111606988</v>
+        <v>1.514510869093932e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0005034151111606988</v>
+        <v>1.514510869093932e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>52.43893112647319</v>
+        <v>55.87540383697127</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[40.18699974379183, 64.69086250915456]</t>
+          <t>[43.40927954659462, 68.34152812734791]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.386757623819904e-11</v>
+        <v>1.158495521735858e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>4.386757623819904e-11</v>
+        <v>1.158495521735858e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>20.53813813813851</v>
+        <v>20.33873873873911</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.19519519519553</v>
+        <v>18.44444444444478</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.8810810810815</v>
+        <v>22.23303303303344</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01670740535473114</v>
+        <v>4.951789011398144e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01670740535473114</v>
+        <v>4.951789011398144e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>33.66052720089041</v>
+        <v>40.38202916143509</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[2.6826973645509895, 64.63835703722982]</t>
+          <t>[18.52439236629607, 62.2396659565741]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.03386231109889137</v>
+        <v>0.0005489437908687833</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03386231109889137</v>
+        <v>0.0005489437908687833</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9622896416401163</v>
+        <v>1.050342288587577</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.031447373909808896, 1.9560266571900415]</t>
+          <t>[0.5220264069028087, 1.5786581702723463]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05737784522959277</v>
+        <v>0.0002302196098986631</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05737784522959277</v>
+        <v>0.0002302196098986631</v>
       </c>
       <c r="T5" t="n">
-        <v>50.89310910521901</v>
+        <v>52.72373067356057</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[34.88772661254828, 66.89849159788974]</t>
+          <t>[41.17014559655914, 64.27731575056201]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.823461989353575e-08</v>
+        <v>6.819433906457562e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>7.823461989353575e-08</v>
+        <v>6.819433906457562e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>21.08648648648687</v>
+        <v>20.73753753753792</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.14834834834866</v>
+        <v>18.64384384384419</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.02462462462509</v>
+        <v>22.83123123123164</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.20000000000034</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.871228596872498e-05</v>
+        <v>0.0007636207371958248</v>
       </c>
       <c r="I6" t="n">
-        <v>1.871228596872498e-05</v>
+        <v>0.0007636207371958248</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.43610240485167</v>
+        <v>44.76317359729391</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[23.09259043874627, 67.77961437095706]</t>
+          <t>[18.197412400639337, 71.32893479394848]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0001729491533728478</v>
+        <v>0.001447824523956198</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001729491533728478</v>
+        <v>0.001447824523956198</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5723422051585008</v>
+        <v>0.2075526678047313</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.05660527303765406, 1.0880791372793475]</t>
+          <t>[-0.5094474573388847, 0.9245527929483472]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.03041465433729873</v>
+        <v>0.5627837331447929</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03041465433729873</v>
+        <v>0.5627837331447929</v>
       </c>
       <c r="T6" t="n">
-        <v>61.12785229337514</v>
+        <v>66.16919687203156</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.94325681895381, 73.31244776779647]</t>
+          <t>[50.720310387262245, 81.61808335680088]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.752553823233029e-13</v>
+        <v>4.298938982572054e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.752553823233029e-13</v>
+        <v>4.298938982572054e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>21.99559559559591</v>
+        <v>23.37159159159192</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.00920920920949</v>
+        <v>20.61345345345374</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.98198198198232</v>
+        <v>26.12972972973009</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.20000000000034</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001451227323017168</v>
+        <v>0.00124550857186867</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001451227323017168</v>
+        <v>0.00124550857186867</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>36.20736742982154</v>
+        <v>40.27550311646542</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[17.604585019629567, 54.81014984001351]</t>
+          <t>[13.216324942187981, 67.33468129074285]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.000298791040815205</v>
+        <v>0.004415519127883183</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000298791040815205</v>
+        <v>0.004415519127883183</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1698158191129622</v>
+        <v>0.4088158608275014</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.45913165908319264, 0.798763297309117]</t>
+          <t>[-0.3081842643161137, 1.1258159859711165]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5892579296819394</v>
+        <v>0.2568747515969052</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5892579296819394</v>
+        <v>0.2568747515969052</v>
       </c>
       <c r="T7" t="n">
-        <v>51.57186327334816</v>
+        <v>55.2709816179568</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[40.54228078166458, 62.60144576503175]</t>
+          <t>[40.784804515799934, 69.75715872011367]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.292921491038214e-12</v>
+        <v>9.955991586707569e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>3.292921491038214e-12</v>
+        <v>9.955991586707569e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>23.54594594594628</v>
+        <v>22.59737737737769</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.12352352352382</v>
+        <v>19.83923923923952</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.96836836836874</v>
+        <v>25.35551551551586</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.20000000000034</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002023355058651699</v>
+        <v>5.186642634413818e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002023355058651699</v>
+        <v>5.186642634413818e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>36.46689897232586</v>
+        <v>47.12467119680143</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[10.66086156754001, 62.272936377111705]</t>
+          <t>[24.7734043601924, 69.47593803341046]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.006641238195082888</v>
+        <v>0.0001074181180742428</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006641238195082888</v>
+        <v>0.0001074181180742428</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4591316590831926</v>
+        <v>0.2327105669325773</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.2956053147521942, 1.2138686329185795]</t>
+          <t>[-0.34592111300788453, 0.8113422468730391]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.2268570083390098</v>
+        <v>0.4221917062175657</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2268570083390098</v>
+        <v>0.4221917062175657</v>
       </c>
       <c r="T8" t="n">
-        <v>63.28311285214411</v>
+        <v>57.89304651972073</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.58388055197018, 76.98234515231803]</t>
+          <t>[44.46070487450227, 71.3253881649392]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.739098002914943e-12</v>
+        <v>3.5980329826657e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>4.739098002914943e-12</v>
+        <v>3.5980329826657e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>22.43163163163195</v>
+        <v>23.27481481481514</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.524724724725</v>
+        <v>21.04894894894925</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.33853853853891</v>
+        <v>25.50068068068104</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.20000000000034</v>
+        <v>24.17000000000034</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007585484135532949</v>
+        <v>2.308807435391635e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007585484135532949</v>
+        <v>2.308807435391635e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>39.28998614706698</v>
+        <v>51.00304546278252</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[8.465648803694066, 70.11432349043989]</t>
+          <t>[27.97005788559487, 74.03603303997018]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01364515547433887</v>
+        <v>5.418898009490469e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01364515547433887</v>
+        <v>5.418898009490469e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3081842643161155</v>
+        <v>0.1446579199851161</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6792632764518469, 1.2956318050840778]</t>
+          <t>[-0.3710790121357297, 0.6603948521059619]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.5327852320329658</v>
+        <v>0.5749260782148493</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5327852320329658</v>
+        <v>0.5749260782148493</v>
       </c>
       <c r="T9" t="n">
-        <v>71.48623489803316</v>
+        <v>64.23599759561293</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[54.62121779223665, 88.35125200382967]</t>
+          <t>[50.40296314249877, 78.06903204872708]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.771738642579294e-11</v>
+        <v>4.051869950671971e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>5.771738642579294e-11</v>
+        <v>4.051869950671971e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>23.01301301301334</v>
+        <v>23.61353353353386</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.20980980981009</v>
+        <v>21.62960960960992</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.8162162162166</v>
+        <v>25.59745745745781</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_2_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_2_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.90000000000045</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001206652733196978</v>
+        <v>0.001499027950454979</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001206652733196978</v>
+        <v>0.001499027950454979</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>43.02795316867243</v>
+        <v>36.4785044919023</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[16.639945770677855, 69.41596056666701]</t>
+          <t>[9.3458154450482, 63.611193538756396]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001984689032197728</v>
+        <v>0.009539792610777642</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001984689032197728</v>
+        <v>0.009539792610777642</v>
       </c>
       <c r="P2" t="n">
-        <v>1.641552918091963</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8365001460008861, 2.4466056901830404]</t>
+          <t>[1.6918687163476562, 2.974921571867812]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0001669965727382206</v>
+        <v>3.357978117790594e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001669965727382206</v>
+        <v>3.357978117790594e-09</v>
       </c>
       <c r="T2" t="n">
-        <v>62.44596375843581</v>
+        <v>51.25523697776972</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.6645555150225, 78.22737200184912]</t>
+          <t>[37.495299656953314, 65.01517429858612]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.815956439723323e-10</v>
+        <v>1.843828867365005e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.815956439723323e-10</v>
+        <v>1.843828867365005e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>18.39459459459493</v>
+        <v>16.33805805805845</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.20420420420449</v>
+        <v>13.68442442442475</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.58498498498538</v>
+        <v>18.99169169169215</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.90000000000045</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01787431543618312</v>
+        <v>0.005552135466919572</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01787431543618312</v>
+        <v>0.005552135466919572</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>32.30812269821571</v>
+        <v>30.60927100590836</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[4.7199221892777885, 59.896323207153635]</t>
+          <t>[6.617049724087316, 54.60149228772941]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0227426240641817</v>
+        <v>0.01356555590989306</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0227426240641817</v>
+        <v>0.01356555590989306</v>
       </c>
       <c r="P3" t="n">
-        <v>1.377394977249579</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.20755266780473125, 2.5472372866944264]</t>
+          <t>[0.19497371824080822, 2.0818161528292727]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.02205865176989619</v>
+        <v>0.01913456078509546</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02205865176989619</v>
+        <v>0.01913456078509546</v>
       </c>
       <c r="T3" t="n">
-        <v>68.67262797800859</v>
+        <v>56.2155952316805</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.95620239432, 84.38905356169718]</t>
+          <t>[43.36688709733012, 69.06430336603087]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.428568457446545e-11</v>
+        <v>2.33884023259634e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.428568457446545e-11</v>
+        <v>2.33884023259634e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>19.4414414414418</v>
+        <v>21.28110110110161</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.80540540540568</v>
+        <v>17.37869869869911</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.07747747747791</v>
+        <v>25.18350350350411</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.90000000000045</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.094260309339681e-06</v>
+        <v>0.0055613637204176</v>
       </c>
       <c r="I4" t="n">
-        <v>4.094260309339681e-06</v>
+        <v>0.0055613637204176</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>49.98008519543264</v>
+        <v>38.61044884540019</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[26.685333317699047, 73.27483707316624]</t>
+          <t>[8.785234077927829, 68.43566361287256]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>8.459728460930016e-05</v>
+        <v>0.01233397634129241</v>
       </c>
       <c r="O4" t="n">
-        <v>8.459728460930016e-05</v>
+        <v>0.01233397634129241</v>
       </c>
       <c r="P4" t="n">
-        <v>1.150973885098963</v>
+        <v>0.8490790955648091</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.672973801669885, 1.628973968528042]</t>
+          <t>[0.1823947686768843, 1.5157634224527339]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.514510869093932e-05</v>
+        <v>0.01371816578378637</v>
       </c>
       <c r="S4" t="n">
-        <v>1.514510869093932e-05</v>
+        <v>0.01371816578378637</v>
       </c>
       <c r="T4" t="n">
-        <v>55.87540383697127</v>
+        <v>65.48251437827625</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.40927954659462, 68.34152812734791]</t>
+          <t>[49.67399316171331, 81.29103559483919]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.158495521735858e-11</v>
+        <v>1.09833475647747e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>1.158495521735858e-11</v>
+        <v>1.09833475647747e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>20.33873873873911</v>
+        <v>22.47783783783838</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.44444444444478</v>
+        <v>19.72014014014061</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.23303303303344</v>
+        <v>25.23553553553614</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.90000000000045</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.951789011398144e-05</v>
+        <v>3.66032472187694e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>4.951789011398144e-05</v>
+        <v>3.66032472187694e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>40.38202916143509</v>
+        <v>62.47859775809375</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[18.52439236629607, 62.2396659565741]</t>
+          <t>[33.66612244776661, 91.29107306842089]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0005489437908687833</v>
+        <v>7.297393180705214e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0005489437908687833</v>
+        <v>7.297393180705214e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>1.050342288587577</v>
+        <v>0.5849211547224247</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.5220264069028087, 1.5786581702723463]</t>
+          <t>[0.11950002085727007, 1.0503422885875793]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0002302196098986631</v>
+        <v>0.01492979866304855</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0002302196098986631</v>
+        <v>0.01492979866304855</v>
       </c>
       <c r="T5" t="n">
-        <v>52.72373067356057</v>
+        <v>73.66322782877334</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.17014559655914, 64.27731575056201]</t>
+          <t>[58.819824083102475, 88.50663157444421]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.819433906457562e-12</v>
+        <v>5.275779813018744e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>6.819433906457562e-12</v>
+        <v>5.275779813018744e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>20.73753753753792</v>
+        <v>23.57051051051107</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.64384384384419</v>
+        <v>21.64532532532584</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.83123123123164</v>
+        <v>25.49569569569631</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.17000000000034</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007636207371958248</v>
+        <v>0.0001532403427040308</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0007636207371958248</v>
+        <v>0.0001532403427040308</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>44.76317359729391</v>
+        <v>49.00432390539098</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[18.197412400639337, 71.32893479394848]</t>
+          <t>[20.21024394985895, 77.798403860923]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001447824523956198</v>
+        <v>0.001311454395400702</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001447824523956198</v>
+        <v>0.001311454395400702</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2075526678047313</v>
+        <v>0.6100790538502707</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5094474573388847, 0.9245527929483472]</t>
+          <t>[0.04402632347373103, 1.1761317842268104]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.5627837331447929</v>
+        <v>0.03526419820004634</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5627837331447929</v>
+        <v>0.03526419820004634</v>
       </c>
       <c r="T6" t="n">
-        <v>66.16919687203156</v>
+        <v>59.05923583264597</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.720310387262245, 81.61808335680088]</t>
+          <t>[44.01044082223594, 74.10803084305599]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.298938982572054e-11</v>
+        <v>4.750795312702394e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>4.298938982572054e-11</v>
+        <v>4.750795312702394e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>23.37159159159192</v>
+        <v>21.67869869869898</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.61345345345374</v>
+        <v>19.51563563563589</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.12972972973009</v>
+        <v>23.84176176176207</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.17000000000034</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00124550857186867</v>
+        <v>0.0002007914631897423</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00124550857186867</v>
+        <v>0.0002007914631897423</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>40.27550311646542</v>
+        <v>44.73414423544194</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[13.216324942187981, 67.33468129074285]</t>
+          <t>[18.78054571995466, 70.68774275092922]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.004415519127883183</v>
+        <v>0.00115397626698388</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004415519127883183</v>
+        <v>0.00115397626698388</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4088158608275014</v>
+        <v>0.4591316590831935</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.3081842643161137, 1.1258159859711165]</t>
+          <t>[-0.15723686954903826, 1.0755001877154253]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.2568747515969052</v>
+        <v>0.1405204549507786</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2568747515969052</v>
+        <v>0.1405204549507786</v>
       </c>
       <c r="T7" t="n">
-        <v>55.2709816179568</v>
+        <v>60.05880177514123</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[40.784804515799934, 69.75715872011367]</t>
+          <t>[46.06848218530898, 74.04912136497347]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.955991586707569e-10</v>
+        <v>4.029176992048633e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>9.955991586707569e-10</v>
+        <v>4.029176992048633e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>22.59737737737769</v>
+        <v>22.2555155155158</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.83923923923952</v>
+        <v>19.90018018018043</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.35551551551586</v>
+        <v>24.61085085085117</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.17000000000034</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.186642634413818e-05</v>
+        <v>0.01281393393933894</v>
       </c>
       <c r="I8" t="n">
-        <v>5.186642634413818e-05</v>
+        <v>0.01281393393933894</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.12467119680143</v>
+        <v>33.09737760117649</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[24.7734043601924, 69.47593803341046]</t>
+          <t>[5.107989220874359, 61.08676598147862]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001074181180742428</v>
+        <v>0.02152376929245148</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001074181180742428</v>
+        <v>0.02152376929245148</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2327105669325773</v>
+        <v>0.2704474156243464</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.34592111300788453, 0.8113422468730391]</t>
+          <t>[-0.754736973835386, 1.2956318050840787]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4221917062175657</v>
+        <v>0.5978046723424875</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4221917062175657</v>
+        <v>0.5978046723424875</v>
       </c>
       <c r="T8" t="n">
-        <v>57.89304651972073</v>
+        <v>60.24260621679674</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.46070487450227, 71.3253881649392]</t>
+          <t>[45.048457355923674, 75.4367550776698]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.5980329826657e-11</v>
+        <v>3.617153243595794e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>3.5980329826657e-11</v>
+        <v>3.617153243595794e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>23.27481481481514</v>
+        <v>22.97653653653684</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.04894894894925</v>
+        <v>19.05898898898924</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.50068068068104</v>
+        <v>26.89408408408444</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.17000000000034</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.308807435391635e-05</v>
+        <v>0.002283655162498066</v>
       </c>
       <c r="I9" t="n">
-        <v>2.308807435391635e-05</v>
+        <v>0.002283655162498066</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.00304546278252</v>
+        <v>35.1959662106894</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[27.97005788559487, 74.03603303997018]</t>
+          <t>[9.368007260762425, 61.02392516061637]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.418898009490469e-05</v>
+        <v>0.008672208809370252</v>
       </c>
       <c r="O9" t="n">
-        <v>5.418898009490469e-05</v>
+        <v>0.008672208809370252</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1446579199851161</v>
+        <v>0.6603948521059628</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.3710790121357297, 0.6603948521059619]</t>
+          <t>[-0.018868424345884094, 1.3396581285578097]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.5749260782148493</v>
+        <v>0.05642857257123324</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5749260782148493</v>
+        <v>0.05642857257123324</v>
       </c>
       <c r="T9" t="n">
-        <v>64.23599759561293</v>
+        <v>59.40809178356965</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.40296314249877, 78.06903204872708]</t>
+          <t>[46.011827833852024, 72.80435573328728]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.051869950671971e-12</v>
+        <v>1.581579311960013e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>4.051869950671971e-12</v>
+        <v>1.581579311960013e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>23.61353353353386</v>
+        <v>21.48642642642671</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.62960960960992</v>
+        <v>18.890750750751</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.59745745745781</v>
+        <v>24.08210210210241</v>
       </c>
     </row>
   </sheetData>
